--- a/data/Simulations/HR1_2/Shared ESS/HR1_ESS.xlsx
+++ b/data/Simulations/HR1_2/Shared ESS/HR1_ESS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\HR1_2\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA52D00-26BE-4C64-82D5-742EE7A4BFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982BE163-0098-4ED6-BD9F-82850027F077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -948,19 +948,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1595,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <v>0.2</v>
@@ -5939,7 +5933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DEF77D-9B02-431D-AE31-A6456F8E9B65}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
